--- a/2020-08_Tőke_Tamás_PRB-374_gkelsz.xlsx
+++ b/2020-08_Tőke_Tamás_PRB-374_gkelsz.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>ÚTNYILVÁNTARTÁS</t>
   </si>
@@ -131,7 +131,7 @@
     <t>99410</t>
   </si>
   <si>
-    <t>100044</t>
+    <t>100282</t>
   </si>
   <si>
     <t>Tőke Tamás</t>
@@ -143,7 +143,7 @@
     <t>5,7</t>
   </si>
   <si>
-    <t>45.3</t>
+    <t>44.3</t>
   </si>
   <si>
     <t>2020-08-10</t>
@@ -176,13 +176,22 @@
     <t>DBD82220071/OTP BANK Nyrt.</t>
   </si>
   <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
     <t>Szentlőrinc Munkácsy u. 19.</t>
   </si>
   <si>
-    <t>S6T50701/MTB Magyar Takarékszövetkezeti Bank</t>
+    <t>S6T50701MTB Magyar Takarékszövetkezeti Bank</t>
   </si>
   <si>
     <t>telephelytelephely</t>
+  </si>
+  <si>
+    <t>Dombóvár Hunyadi tér 12.</t>
+  </si>
+  <si>
+    <t>CASH2079/K &amp; H BANK ZRT.</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1143,7 @@
       </c>
       <c r="G5" s="8" t="str">
         <f>SUM(I10:I105)</f>
-        <v>634</v>
+        <v>872</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -1151,7 +1160,7 @@
       </c>
       <c r="G6" s="9" t="str">
         <f>100*G7/G5</f>
-        <v>7.145</v>
+        <v>5.080</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
@@ -1366,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>38</v>
@@ -1375,10 +1384,10 @@
         <v>39</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" s="26" t="n">
         <f t="shared" si="0"/>
@@ -1399,26 +1408,26 @@
         <v>6</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" s="26" t="n">
         <f t="shared" si="0"/>
         <v>100044.0</v>
       </c>
       <c r="H15" s="21" t="n">
-        <v>45.3</v>
+        <v>44.3</v>
       </c>
       <c r="I15" s="21" t="n">
         <v>187.0</v>
@@ -1431,35 +1440,67 @@
       <c r="A16" s="19">
         <v>7</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="19"/>
+      <c r="B16" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>100163.0</v>
+      </c>
+      <c r="H16" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="21" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>8</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="19"/>
+      <c r="B17" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>100282.0</v>
+      </c>
+      <c r="H17" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="21" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -2927,7 +2968,7 @@
       </c>
       <c r="L103" s="35" t="str">
         <f>SUM(I10:I105)</f>
-        <v>634</v>
+        <v>872</v>
       </c>
       <c r="M103" s="36"/>
     </row>
@@ -2980,7 +3021,7 @@
       </c>
       <c r="L105" s="41" t="str">
         <f>C5+L103</f>
-        <v>100044</v>
+        <v>100282</v>
       </c>
       <c r="M105" s="42"/>
     </row>

--- a/2020-08_Tőke_Tamás_PRB-374_gkelsz.xlsx
+++ b/2020-08_Tőke_Tamás_PRB-374_gkelsz.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="69">
   <si>
     <t>ÚTNYILVÁNTARTÁS</t>
   </si>
@@ -131,7 +131,7 @@
     <t>99410</t>
   </si>
   <si>
-    <t>100282</t>
+    <t>100948</t>
   </si>
   <si>
     <t>Tőke Tamás</t>
@@ -143,7 +143,7 @@
     <t>5,7</t>
   </si>
   <si>
-    <t>44.3</t>
+    <t>127.710</t>
   </si>
   <si>
     <t>2020-08-10</t>
@@ -192,6 +192,54 @@
   </si>
   <si>
     <t>CASH2079/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>2020-08-13</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>Velence Gerle u. 2.</t>
+  </si>
+  <si>
+    <t>S6T57802/MTB Magyar Takarékszövetkezeti Bank</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>Győr Teleki u. 51.</t>
+  </si>
+  <si>
+    <t>DBD82220040/OTP BANK Nyrt.</t>
+  </si>
+  <si>
+    <t>2020-08-18</t>
+  </si>
+  <si>
+    <t>Dunakeszi Fő út 24.</t>
+  </si>
+  <si>
+    <t>S01118_ENA/ERSTE BANK HUNGARY Zrt</t>
+  </si>
+  <si>
+    <t>2020-08-19</t>
+  </si>
+  <si>
+    <t>Székesfehérvár Dózsa Gy. u.5.</t>
+  </si>
+  <si>
+    <t>AKHB2591/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>Seregélyes Fő u. 169.</t>
+  </si>
+  <si>
+    <t>S6T57804MTB Magyar Takarékszövetkezeti Bank</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1191,7 @@
       </c>
       <c r="G5" s="8" t="str">
         <f>SUM(I10:I105)</f>
-        <v>872</v>
+        <v>1538</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -1160,7 +1208,7 @@
       </c>
       <c r="G6" s="9" t="str">
         <f>100*G7/G5</f>
-        <v>5.080</v>
+        <v>8.303</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
@@ -1506,205 +1554,397 @@
       <c r="A18" s="19">
         <v>9</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>100401.0</v>
+      </c>
+      <c r="H18" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="21" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>10</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="19"/>
+      <c r="B19" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>100520.0</v>
+      </c>
+      <c r="H19" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="21" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>12</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="19"/>
+      <c r="B20" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>100542.0</v>
+      </c>
+      <c r="H20" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>13</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="19"/>
+      <c r="B21" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>100564.0</v>
+      </c>
+      <c r="H21" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>14</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>100653.0</v>
+      </c>
+      <c r="H22" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="21" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>15</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="19"/>
+      <c r="B23" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>100742.0</v>
+      </c>
+      <c r="H23" s="21" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="I23" s="21" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>16</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>100822.0</v>
+      </c>
+      <c r="H24" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="21" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>17</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="19"/>
+      <c r="B25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>100902.0</v>
+      </c>
+      <c r="H25" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="21" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>19</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="19"/>
+      <c r="B26" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>100907.0</v>
+      </c>
+      <c r="H26" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>20</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="19"/>
+      <c r="B27" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>100912.0</v>
+      </c>
+      <c r="H27" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>21</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="19"/>
+      <c r="B28" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>100930.0</v>
+      </c>
+      <c r="H28" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>22</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="19"/>
+      <c r="B29" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>100948.0</v>
+      </c>
+      <c r="H29" s="21" t="n">
+        <v>39.84</v>
+      </c>
+      <c r="I29" s="21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
@@ -2968,7 +3208,7 @@
       </c>
       <c r="L103" s="35" t="str">
         <f>SUM(I10:I105)</f>
-        <v>872</v>
+        <v>1538</v>
       </c>
       <c r="M103" s="36"/>
     </row>
@@ -3021,7 +3261,7 @@
       </c>
       <c r="L105" s="41" t="str">
         <f>C5+L103</f>
-        <v>100282</v>
+        <v>100948</v>
       </c>
       <c r="M105" s="42"/>
     </row>
